--- a/electricity/sources/SI Electricity, Emissions, Capacities, Consumption - Publish.xlsx
+++ b/electricity/sources/SI Electricity, Emissions, Capacities, Consumption - Publish.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150"/>
+    <workbookView xWindow="360" yWindow="330" windowWidth="14940" windowHeight="9090" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="InstalledCapacities" sheetId="2" r:id="rId1"/>
@@ -496,6 +496,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Jan Bohinec</author>
+    <author>Jan</author>
   </authors>
   <commentList>
     <comment ref="B5" authorId="0">
@@ -522,6 +523,32 @@
           <t xml:space="preserve">
 Source: Podnebnik github - Energy Emission - Fuel Consumption - Energy Sector
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B37" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Jan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+Nepreverjeno</t>
         </r>
       </text>
     </comment>
@@ -1808,7 +1835,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2115,6 +2142,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Navadno" xfId="0" builtinId="0"/>
@@ -4720,11 +4748,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="227862016"/>
-        <c:axId val="182737664"/>
+        <c:axId val="225585664"/>
+        <c:axId val="178150144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="227862016"/>
+        <c:axId val="225585664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4767,7 +4795,7 @@
             <a:endParaRPr lang="sl-SI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182737664"/>
+        <c:crossAx val="178150144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4775,7 +4803,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182737664"/>
+        <c:axId val="178150144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4869,7 +4897,7 @@
             <a:endParaRPr lang="sl-SI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227862016"/>
+        <c:crossAx val="225585664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6209,11 +6237,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="227862528"/>
-        <c:axId val="228798976"/>
+        <c:axId val="225586688"/>
+        <c:axId val="227750400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="227862528"/>
+        <c:axId val="225586688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6299,7 +6327,7 @@
             <a:endParaRPr lang="sl-SI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228798976"/>
+        <c:crossAx val="227750400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6307,7 +6335,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228798976"/>
+        <c:axId val="227750400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6407,7 +6435,7 @@
             <a:endParaRPr lang="sl-SI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227862528"/>
+        <c:crossAx val="225586688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6924,11 +6952,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="227864064"/>
-        <c:axId val="228800128"/>
+        <c:axId val="227840000"/>
+        <c:axId val="227751552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="227864064"/>
+        <c:axId val="227840000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7007,7 +7035,7 @@
             <a:endParaRPr lang="sl-SI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228800128"/>
+        <c:crossAx val="227751552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7015,7 +7043,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228800128"/>
+        <c:axId val="227751552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -7109,7 +7137,7 @@
             <a:endParaRPr lang="sl-SI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227864064"/>
+        <c:crossAx val="227840000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7891,11 +7919,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="228921344"/>
-        <c:axId val="228797824"/>
+        <c:axId val="227841024"/>
+        <c:axId val="227749248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="228921344"/>
+        <c:axId val="227841024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7938,7 +7966,7 @@
             <a:endParaRPr lang="sl-SI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228797824"/>
+        <c:crossAx val="227749248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7946,7 +7974,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228797824"/>
+        <c:axId val="227749248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7997,7 +8025,7 @@
             <a:endParaRPr lang="sl-SI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228921344"/>
+        <c:crossAx val="227841024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8806,11 +8834,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="228922880"/>
-        <c:axId val="228982784"/>
+        <c:axId val="227842560"/>
+        <c:axId val="228081664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="228922880"/>
+        <c:axId val="227842560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8853,7 +8881,7 @@
             <a:endParaRPr lang="sl-SI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228982784"/>
+        <c:crossAx val="228081664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8861,7 +8889,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228982784"/>
+        <c:axId val="228081664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8912,7 +8940,7 @@
             <a:endParaRPr lang="sl-SI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228922880"/>
+        <c:crossAx val="227842560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9621,11 +9649,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="225329152"/>
-        <c:axId val="228985088"/>
+        <c:axId val="223859200"/>
+        <c:axId val="228083968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="225329152"/>
+        <c:axId val="223859200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9704,7 +9732,7 @@
             <a:endParaRPr lang="sl-SI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228985088"/>
+        <c:crossAx val="228083968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9712,7 +9740,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228985088"/>
+        <c:axId val="228083968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9811,7 +9839,7 @@
             <a:endParaRPr lang="sl-SI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225329152"/>
+        <c:crossAx val="223859200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10005,9 +10033,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>EnergyEmissions!$A$22:$A$36</c:f>
+              <c:f>EnergyEmissions!$A$22:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2005</c:v>
                 </c:pt>
@@ -10052,16 +10080,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>EnergyEmissions!$C$22:$C$36</c:f>
+              <c:f>EnergyEmissions!$C$22:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>51</c:v>
                 </c:pt>
@@ -10106,6 +10137,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10142,9 +10176,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>EnergyEmissions!$A$22:$A$36</c:f>
+              <c:f>EnergyEmissions!$A$22:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2005</c:v>
                 </c:pt>
@@ -10189,16 +10223,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>EnergyEmissions!$D$22:$D$36</c:f>
+              <c:f>EnergyEmissions!$D$22:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
@@ -10243,6 +10280,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10279,9 +10319,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>EnergyEmissions!$A$22:$A$36</c:f>
+              <c:f>EnergyEmissions!$A$22:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2005</c:v>
                 </c:pt>
@@ -10326,16 +10366,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>EnergyEmissions!$E$22:$E$36</c:f>
+              <c:f>EnergyEmissions!$E$22:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>28</c:v>
                 </c:pt>
@@ -10380,6 +10423,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10418,9 +10464,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>EnergyEmissions!$A$22:$A$36</c:f>
+              <c:f>EnergyEmissions!$A$22:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2005</c:v>
                 </c:pt>
@@ -10465,16 +10511,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>EnergyEmissions!$F$22:$F$36</c:f>
+              <c:f>EnergyEmissions!$F$22:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10512,9 +10561,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>EnergyEmissions!$A$22:$A$36</c:f>
+              <c:f>EnergyEmissions!$A$22:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2005</c:v>
                 </c:pt>
@@ -10559,16 +10608,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>EnergyEmissions!$G$22:$G$36</c:f>
+              <c:f>EnergyEmissions!$G$22:$G$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10606,9 +10658,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>EnergyEmissions!$A$22:$A$36</c:f>
+              <c:f>EnergyEmissions!$A$22:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2005</c:v>
                 </c:pt>
@@ -10653,16 +10705,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>EnergyEmissions!$H$22:$H$36</c:f>
+              <c:f>EnergyEmissions!$H$22:$H$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10698,9 +10753,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>EnergyEmissions!$A$22:$A$36</c:f>
+              <c:f>EnergyEmissions!$A$22:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2005</c:v>
                 </c:pt>
@@ -10745,16 +10800,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>EnergyEmissions!$I$22:$I$36</c:f>
+              <c:f>EnergyEmissions!$I$22:$I$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>4623</c:v>
                 </c:pt>
@@ -10799,6 +10857,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>3817</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3760</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10835,9 +10896,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>EnergyEmissions!$A$22:$A$36</c:f>
+              <c:f>EnergyEmissions!$A$22:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2005</c:v>
                 </c:pt>
@@ -10882,16 +10943,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>EnergyEmissions!$J$22:$J$36</c:f>
+              <c:f>EnergyEmissions!$J$22:$J$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>858</c:v>
                 </c:pt>
@@ -10936,6 +11000,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10972,9 +11039,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>EnergyEmissions!$A$22:$A$36</c:f>
+              <c:f>EnergyEmissions!$A$22:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2005</c:v>
                 </c:pt>
@@ -11019,16 +11086,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>EnergyEmissions!$K$22:$K$36</c:f>
+              <c:f>EnergyEmissions!$K$22:$K$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>671</c:v>
                 </c:pt>
@@ -11072,6 +11142,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -11111,9 +11184,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>EnergyEmissions!$A$22:$A$36</c:f>
+              <c:f>EnergyEmissions!$A$22:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2005</c:v>
                 </c:pt>
@@ -11158,6 +11231,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11250,9 +11326,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>EnergyEmissions!$A$22:$A$36</c:f>
+              <c:f>EnergyEmissions!$A$22:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2005</c:v>
                 </c:pt>
@@ -11297,6 +11373,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11389,9 +11468,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>EnergyEmissions!$A$22:$A$36</c:f>
+              <c:f>EnergyEmissions!$A$22:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2005</c:v>
                 </c:pt>
@@ -11436,6 +11515,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11529,9 +11611,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>EnergyEmissions!$A$22:$A$36</c:f>
+              <c:f>EnergyEmissions!$A$22:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2005</c:v>
                 </c:pt>
@@ -11576,16 +11658,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>EnergyEmissions!$O$22:$O$36</c:f>
+              <c:f>EnergyEmissions!$O$22:$O$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -11630,6 +11715,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11650,11 +11738,111 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="229088256"/>
-        <c:axId val="228987392"/>
+        <c:axId val="228294144"/>
+        <c:axId val="228086272"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EnergyEmissions!$S$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2030 Target</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>EnergyEmissions!$S$22:$S$37</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2358.7094461211991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2358.7094461211991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2358.7094461211991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2358.7094461211991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2358.7094461211991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2358.7094461211991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2358.7094461211991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2358.7094461211991</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2358.7094461211991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2358.7094461211991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2358.7094461211991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2358.7094461211991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2358.7094461211991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2358.7094461211991</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2358.7094461211991</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2358.7094461211991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="228294144"/>
+        <c:axId val="228086272"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="229088256"/>
+        <c:axId val="228294144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11740,7 +11928,7 @@
             <a:endParaRPr lang="sl-SI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228987392"/>
+        <c:crossAx val="228086272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11748,7 +11936,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="228987392"/>
+        <c:axId val="228086272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11842,7 +12030,7 @@
             <a:endParaRPr lang="sl-SI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229088256"/>
+        <c:crossAx val="228294144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16280,7 +16468,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -16293,7 +16481,7 @@
   </sheetPr>
   <dimension ref="A1:AZ91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
@@ -33617,8 +33805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:I1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -33837,7 +34025,7 @@
       <c r="Q7" s="48"/>
       <c r="R7" s="48"/>
       <c r="S7" s="47">
-        <f t="shared" ref="S7:S36" si="0">$S$2*$B$7</f>
+        <f t="shared" ref="S7:S37" si="0">$S$2*$B$7</f>
         <v>2358.7094461211991</v>
       </c>
       <c r="T7" s="48"/>
@@ -34410,11 +34598,11 @@
       </c>
       <c r="P22" s="48"/>
       <c r="Q22" s="48">
-        <f t="shared" ref="Q22:Q36" si="1">+SUM(C22:O22)</f>
+        <f t="shared" ref="Q22:Q37" si="1">+SUM(C22:O22)</f>
         <v>6335</v>
       </c>
       <c r="R22" s="47">
-        <f t="shared" ref="R22:R36" si="2">+B22-Q22</f>
+        <f t="shared" ref="R22:R37" si="2">+B22-Q22</f>
         <v>113.19823352236017</v>
       </c>
       <c r="S22" s="47">
@@ -35317,24 +35505,55 @@
       <c r="A37" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
+      <c r="B37" s="180">
+        <v>4363</v>
+      </c>
+      <c r="C37" s="48">
+        <v>55</v>
+      </c>
+      <c r="D37" s="48">
+        <v>12</v>
+      </c>
+      <c r="E37" s="48">
+        <v>29</v>
+      </c>
       <c r="F37" s="48"/>
       <c r="G37" s="48"/>
       <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
+      <c r="I37" s="48">
+        <v>3760</v>
+      </c>
+      <c r="J37" s="48">
+        <v>475</v>
+      </c>
+      <c r="K37" s="48">
+        <v>0</v>
+      </c>
+      <c r="L37" s="48">
+        <v>1</v>
+      </c>
+      <c r="M37" s="48">
+        <v>18</v>
+      </c>
+      <c r="N37" s="48">
+        <v>0</v>
+      </c>
+      <c r="O37" s="48">
+        <v>13</v>
+      </c>
       <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
+      <c r="Q37" s="48">
+        <f t="shared" si="1"/>
+        <v>4363</v>
+      </c>
+      <c r="R37" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="47">
+        <f t="shared" si="0"/>
+        <v>2358.7094461211991</v>
+      </c>
       <c r="T37" s="48"/>
       <c r="U37" s="48"/>
       <c r="V37" s="48"/>
